--- a/test/org/echosoft/framework/reports/data/test-grp-1.xlsx
+++ b/test/org/echosoft/framework/reports/data/test-grp-1.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anton/work/echosoft/reports/test/org/echosoft/framework/reports/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="18225" windowHeight="9360"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>кол-во</t>
   </si>
@@ -63,13 +76,19 @@
   </si>
   <si>
     <t>$F=B${var:row}*C${var:row}</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>вторая таблица:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,8 +123,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,8 +160,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -147,74 +177,74 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -222,16 +252,40 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,8 +319,19 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -274,13 +339,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -318,14 +388,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -352,14 +422,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -386,9 +457,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,18 +633,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="6" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -592,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
@@ -606,7 +680,7 @@
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -626,19 +700,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -646,18 +753,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="5" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -674,7 +783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
@@ -687,7 +796,7 @@
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
@@ -700,7 +809,7 @@
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -717,14 +826,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/test/org/echosoft/framework/reports/data/test-grp-1.xlsx
+++ b/test/org/echosoft/framework/reports/data/test-grp-1.xlsx
@@ -78,17 +78,50 @@
     <t>$F=B${var:row}*C${var:row}</t>
   </si>
   <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>вторая таблица:</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>вторая</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>таблица</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Итог:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,8 +158,17 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -323,7 +365,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -333,6 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -637,7 +679,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,24 +743,24 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="A5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
@@ -736,11 +778,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="21"/>
+    <row r="8" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -827,13 +869,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
